--- a/data/trans_bre/P59A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P59A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,4%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 16,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; 24,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,82; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 17,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 410,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,49; 352,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,99; 29,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,84; 901,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; 0,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 4,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,05; 3,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,0; 9,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,08; 48,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 44,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,94; 34,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,01; 21,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,9; 21,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,41; 28,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,48; 30,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 2,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 2,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 2,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,78; 21,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,95; 18,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,11; 16,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,06; 25,9</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,02%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,48; 0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 7,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,92; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,67; -0,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; 1,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,18; 62,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,05; 0,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,14; -2,56</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; -0,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 2,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; -0,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,84; -6,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 15,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; -4,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; -0,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>-38,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-32,06%</t>
+          <t>-23,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>-6,16%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 16,0</t>
+          <t>-8,69; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 24,58</t>
+          <t>-7,47; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 6,92</t>
+          <t>-10,6; 1,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 17,24</t>
+          <t>-6,29; 4,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 410,63</t>
+          <t>-70,83; 15,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,49; 352,39</t>
+          <t>-45,56; 53,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 29,79</t>
+          <t>-49,53; 12,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 901,21</t>
+          <t>-40,56; 51,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,36%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,59%</t>
+          <t>-16,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>-5,28%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 0,17</t>
+          <t>-7,71; 1,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 4,37</t>
+          <t>-7,98; 2,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 4,05</t>
+          <t>-6,78; 4,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 3,25</t>
+          <t>-6,57; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 9,15</t>
+          <t>-53,01; 21,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 48,27</t>
+          <t>-43,9; 21,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 44,5</t>
+          <t>-34,41; 28,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 34,61</t>
+          <t>-32,47; 35,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,45%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>-10,44%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,95</t>
+          <t>-10,08; 2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,52</t>
+          <t>-10,48; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,07</t>
+          <t>-8,98; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,02</t>
+          <t>-8,44; 4,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 21,52</t>
+          <t>-53,78; 21,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,9; 21,3</t>
+          <t>-47,95; 18,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 28,66</t>
+          <t>-45,11; 16,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 30,29</t>
+          <t>-37,0; 29,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>-25,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,98%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-35,28%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 2,37</t>
+          <t>-9,48; 0,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 2,84</t>
+          <t>-2,26; 7,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 2,08</t>
+          <t>-9,92; 0,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,1</t>
+          <t>-10,64; -0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 21,17</t>
+          <t>-46,47; 1,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 18,63</t>
+          <t>-14,18; 62,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 16,29</t>
+          <t>-46,05; 0,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 25,9</t>
+          <t>-58,22; -7,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-25,47%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-17,61%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 0,09</t>
+          <t>-6,01; -0,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,33</t>
+          <t>-3,86; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 0,06</t>
+          <t>-6,09; -0,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,43</t>
+          <t>-5,66; 0,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 1,42</t>
+          <t>-39,84; -6,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 62,68</t>
+          <t>-23,19; 15,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 0,46</t>
+          <t>-32,59; -4,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -2,56</t>
+          <t>-32,9; 0,96</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,46</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-6,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-19,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-17,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; -0,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 2,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; -0,69</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; -0,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-39,84; -6,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; 15,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-32,59; -4,23</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-31,19; -0,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P59A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 0,88</t>
+          <t>-8,45; 1,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 5,39</t>
+          <t>-7,67; 4,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 1,58</t>
+          <t>-10,24; 1,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 4,73</t>
+          <t>-6,5; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 15,33</t>
+          <t>-67,92; 18,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 53,91</t>
+          <t>-46,57; 44,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 12,34</t>
+          <t>-50,47; 14,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 51,53</t>
+          <t>-39,73; 45,5</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,95</t>
+          <t>-7,88; 1,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,52</t>
+          <t>-8,81; 2,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,07</t>
+          <t>-6,55; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 4,56</t>
+          <t>-6,76; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 21,52</t>
+          <t>-54,74; 22,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,9; 21,3</t>
+          <t>-46,07; 17,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 28,66</t>
+          <t>-33,15; 29,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 35,07</t>
+          <t>-33,04; 34,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 2,37</t>
+          <t>-9,3; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 2,84</t>
+          <t>-10,4; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 2,08</t>
+          <t>-9,38; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 4,47</t>
+          <t>-8,07; 5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 21,17</t>
+          <t>-51,8; 26,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 18,63</t>
+          <t>-46,43; 18,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 16,29</t>
+          <t>-46,48; 10,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 29,93</t>
+          <t>-34,97; 31,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 0,09</t>
+          <t>-9,4; 0,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,33</t>
+          <t>-2,15; 7,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 0,06</t>
+          <t>-9,96; -0,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,94</t>
+          <t>-10,67; -0,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 1,42</t>
+          <t>-46,69; 1,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 62,68</t>
+          <t>-13,76; 69,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 0,46</t>
+          <t>-45,79; -0,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,22; -7,42</t>
+          <t>-58,63; -7,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,77</t>
+          <t>-6,06; -0,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,12</t>
+          <t>-3,75; 1,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,69</t>
+          <t>-5,9; -0,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,16</t>
+          <t>-5,74; -0,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -6,04</t>
+          <t>-39,67; -7,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 15,67</t>
+          <t>-21,95; 14,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -4,23</t>
+          <t>-31,18; -4,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 0,96</t>
+          <t>-33,4; -0,59</t>
         </is>
       </c>
     </row>
